--- a/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H2">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I2">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J2">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N2">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O2">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P2">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q2">
-        <v>15.97297151218844</v>
+        <v>0.2043410699777778</v>
       </c>
       <c r="R2">
-        <v>15.97297151218844</v>
+        <v>1.8390696298</v>
       </c>
       <c r="S2">
-        <v>0.04444639558090447</v>
+        <v>0.0005233353744513634</v>
       </c>
       <c r="T2">
-        <v>0.04444639558090447</v>
+        <v>0.0006077455038790556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H3">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I3">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J3">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N3">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P3">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q3">
-        <v>91.87370172967468</v>
+        <v>1.061366428020889</v>
       </c>
       <c r="R3">
-        <v>91.87370172967468</v>
+        <v>9.552297852187998</v>
       </c>
       <c r="S3">
-        <v>0.2556477914859612</v>
+        <v>0.002718252366491099</v>
       </c>
       <c r="T3">
-        <v>0.2556477914859612</v>
+        <v>0.003156686390396297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H4">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I4">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J4">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N4">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O4">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P4">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q4">
-        <v>65.30779519220789</v>
+        <v>0.8053033500951112</v>
       </c>
       <c r="R4">
-        <v>65.30779519220789</v>
+        <v>7.247730150856</v>
       </c>
       <c r="S4">
-        <v>0.1817254915539424</v>
+        <v>0.002062452400365696</v>
       </c>
       <c r="T4">
-        <v>0.1817254915539424</v>
+        <v>0.002395110734872189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H5">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I5">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J5">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N5">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O5">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P5">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q5">
-        <v>47.1200736101527</v>
+        <v>0.5348529944506666</v>
       </c>
       <c r="R5">
-        <v>47.1200736101527</v>
+        <v>4.813676950055999</v>
       </c>
       <c r="S5">
-        <v>0.1311163317282624</v>
+        <v>0.001369805356102484</v>
       </c>
       <c r="T5">
-        <v>0.1311163317282624</v>
+        <v>0.001590744839737758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H6">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I6">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J6">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N6">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O6">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P6">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q6">
-        <v>112.298446996345</v>
+        <v>1.270742953670666</v>
       </c>
       <c r="R6">
-        <v>112.298446996345</v>
+        <v>7.624457722023999</v>
       </c>
       <c r="S6">
-        <v>0.312481694123859</v>
+        <v>0.003254483983875545</v>
       </c>
       <c r="T6">
-        <v>0.312481694123859</v>
+        <v>0.002519605470609589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H7">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J7">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N7">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O7">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P7">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q7">
-        <v>1.28731153079249</v>
+        <v>18.32372099228889</v>
       </c>
       <c r="R7">
-        <v>1.28731153079249</v>
+        <v>164.9134889306</v>
       </c>
       <c r="S7">
-        <v>0.003582073472666174</v>
+        <v>0.04692865407763927</v>
       </c>
       <c r="T7">
-        <v>0.003582073472666174</v>
+        <v>0.05449789926522799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H8">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I8">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J8">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N8">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P8">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q8">
-        <v>7.404387813685903</v>
+        <v>95.17510258584842</v>
       </c>
       <c r="R8">
-        <v>7.404387813685903</v>
+        <v>856.5759232726357</v>
       </c>
       <c r="S8">
-        <v>0.02060345187183162</v>
+        <v>0.2437517722483718</v>
       </c>
       <c r="T8">
-        <v>0.02060345187183162</v>
+        <v>0.2830671322415393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H9">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I9">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J9">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N9">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O9">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P9">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q9">
-        <v>5.263358651670508</v>
+        <v>72.21335340420356</v>
       </c>
       <c r="R9">
-        <v>5.263358651670508</v>
+        <v>649.920180637832</v>
       </c>
       <c r="S9">
-        <v>0.01464582344855581</v>
+        <v>0.184944721823603</v>
       </c>
       <c r="T9">
-        <v>0.01464582344855581</v>
+        <v>0.2147749390575608</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H10">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I10">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J10">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N10">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O10">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P10">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q10">
-        <v>3.797553513687435</v>
+        <v>47.96146483558132</v>
       </c>
       <c r="R10">
-        <v>3.797553513687435</v>
+        <v>431.6531835202319</v>
       </c>
       <c r="S10">
-        <v>0.01056707360807657</v>
+        <v>0.1228335114507058</v>
       </c>
       <c r="T10">
-        <v>0.01056707360807657</v>
+        <v>0.142645649337394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H11">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I11">
+        <v>0.8902955208876449</v>
+      </c>
+      <c r="J11">
+        <v>0.920924280490686</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N11">
+        <v>15.271762</v>
+      </c>
+      <c r="O11">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P11">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q11">
+        <v>113.9503641559213</v>
+      </c>
+      <c r="R11">
+        <v>683.7021849355278</v>
+      </c>
+      <c r="S11">
+        <v>0.2918368612873249</v>
+      </c>
+      <c r="T11">
+        <v>0.2259386605889639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.6724345</v>
+      </c>
+      <c r="H12">
+        <v>3.344869</v>
+      </c>
+      <c r="I12">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J12">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.227883333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.68365</v>
+      </c>
+      <c r="O12">
+        <v>0.05271132222573729</v>
+      </c>
+      <c r="P12">
+        <v>0.05917739429803119</v>
+      </c>
+      <c r="Q12">
+        <v>2.053554448641667</v>
+      </c>
+      <c r="R12">
+        <v>12.32132669185</v>
+      </c>
+      <c r="S12">
+        <v>0.005259332773646648</v>
+      </c>
+      <c r="T12">
+        <v>0.004071749528924137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.18528390041374</v>
-      </c>
-      <c r="H11">
-        <v>1.18528390041374</v>
-      </c>
-      <c r="I11">
-        <v>0.07458229552707067</v>
-      </c>
-      <c r="J11">
-        <v>0.07458229552707067</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.63570791410934</v>
-      </c>
-      <c r="N11">
-        <v>7.63570791410934</v>
-      </c>
-      <c r="O11">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="P11">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="Q11">
-        <v>9.050481658855583</v>
-      </c>
-      <c r="R11">
-        <v>9.050481658855583</v>
-      </c>
-      <c r="S11">
-        <v>0.0251838731259405</v>
-      </c>
-      <c r="T11">
-        <v>0.0251838731259405</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.6724345</v>
+      </c>
+      <c r="H13">
+        <v>3.344869</v>
+      </c>
+      <c r="I13">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J13">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.377739666666666</v>
+      </c>
+      <c r="N13">
+        <v>19.133219</v>
+      </c>
+      <c r="O13">
+        <v>0.2737874857612962</v>
+      </c>
+      <c r="P13">
+        <v>0.3073728625014814</v>
+      </c>
+      <c r="Q13">
+        <v>10.66635185055183</v>
+      </c>
+      <c r="R13">
+        <v>63.99811110331099</v>
+      </c>
+      <c r="S13">
+        <v>0.02731746114643321</v>
+      </c>
+      <c r="T13">
+        <v>0.02114904386954578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.6724345</v>
+      </c>
+      <c r="H14">
+        <v>3.344869</v>
+      </c>
+      <c r="I14">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J14">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.839059333333334</v>
+      </c>
+      <c r="N14">
+        <v>14.517178</v>
+      </c>
+      <c r="O14">
+        <v>0.2077340809703377</v>
+      </c>
+      <c r="P14">
+        <v>0.2332167189067104</v>
+      </c>
+      <c r="Q14">
+        <v>8.093009776613668</v>
+      </c>
+      <c r="R14">
+        <v>48.558058659682</v>
+      </c>
+      <c r="S14">
+        <v>0.02072690674636898</v>
+      </c>
+      <c r="T14">
+        <v>0.01604666911427737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.6724345</v>
+      </c>
+      <c r="H15">
+        <v>3.344869</v>
+      </c>
+      <c r="I15">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J15">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.213925999999999</v>
+      </c>
+      <c r="N15">
+        <v>9.641777999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1379693692362262</v>
+      </c>
+      <c r="P15">
+        <v>0.1548940041643702</v>
+      </c>
+      <c r="Q15">
+        <v>5.375080722846999</v>
+      </c>
+      <c r="R15">
+        <v>32.250484337082</v>
+      </c>
+      <c r="S15">
+        <v>0.01376605242941789</v>
+      </c>
+      <c r="T15">
+        <v>0.0106576099872385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.6724345</v>
+      </c>
+      <c r="H16">
+        <v>3.344869</v>
+      </c>
+      <c r="I16">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J16">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N16">
+        <v>15.271762</v>
+      </c>
+      <c r="O16">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P16">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q16">
+        <v>12.7705108222945</v>
+      </c>
+      <c r="R16">
+        <v>51.082043289178</v>
+      </c>
+      <c r="S16">
+        <v>0.0327063965352021</v>
+      </c>
+      <c r="T16">
+        <v>0.01688075406983332</v>
       </c>
     </row>
   </sheetData>
